--- a/doc/Yeelight GPIO measurements.xlsx
+++ b/doc/Yeelight GPIO measurements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="103">
   <si>
     <t xml:space="preserve">33 (L6)</t>
   </si>
@@ -179,6 +179,75 @@
     <t xml:space="preserve">Blue 5 (R5)</t>
   </si>
   <si>
+    <t xml:space="preserve">Red measurements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 128 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 0 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 128 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 128 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 0 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 0 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 255 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 255 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255 255 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 255 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 255 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128 255 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 128 128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 255 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 255 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay, these two are actually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equal, since brightness is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not in the RGB value, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">separate. So these are</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translated to (0, 1, 1) both.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hence the equal values. Doh.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Green</t>
   </si>
   <si>
@@ -316,7 +385,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +436,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF5CE"/>
+        <bgColor rgb="FFFFE994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FFAECF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFD428"/>
         <bgColor rgb="FFFFD320"/>
       </patternFill>
@@ -379,20 +466,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF5CE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDEDCE6"/>
         <bgColor rgb="FFDEE6EF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -436,7 +511,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -481,19 +556,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -505,6 +568,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -513,11 +580,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,6 +593,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,17 +624,17 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFC5000B"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFD428"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF7E0021"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -566,7 +645,7 @@
       <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0084D1"/>
       <rgbColor rgb="FFDEDCE6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -577,35 +656,35 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFB4C7DC"/>
       <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FFFFFF6D"/>
-      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFAECF00"/>
       <rgbColor rgb="FFFFD320"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF950E"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF314004"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF4B1F6F"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart219.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart372.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -762,11 +841,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="99053610"/>
-        <c:axId val="86971415"/>
+        <c:axId val="21107926"/>
+        <c:axId val="17525356"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99053610"/>
+        <c:axId val="21107926"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,7 +873,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86971415"/>
+        <c:crossAx val="17525356"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -802,7 +881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86971415"/>
+        <c:axId val="17525356"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -839,7 +918,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99053610"/>
+        <c:crossAx val="21107926"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -887,7 +966,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart220.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart373.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1137,11 +1216,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41179977"/>
-        <c:axId val="59825335"/>
+        <c:axId val="78306083"/>
+        <c:axId val="30180032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41179977"/>
+        <c:axId val="78306083"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1169,12 +1248,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59825335"/>
+        <c:crossAx val="30180032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59825335"/>
+        <c:axId val="30180032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,7 +1290,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41179977"/>
+        <c:crossAx val="78306083"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1259,7 +1338,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart221.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart374.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1509,11 +1588,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="24720191"/>
-        <c:axId val="83239322"/>
+        <c:axId val="63114191"/>
+        <c:axId val="55100657"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24720191"/>
+        <c:axId val="63114191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,12 +1620,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83239322"/>
+        <c:crossAx val="55100657"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83239322"/>
+        <c:axId val="55100657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1662,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24720191"/>
+        <c:crossAx val="63114191"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1631,7 +1710,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart222.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart375.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1890,11 +1969,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="81744148"/>
-        <c:axId val="63138004"/>
+        <c:axId val="46913650"/>
+        <c:axId val="87359090"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81744148"/>
+        <c:axId val="46913650"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,12 +2001,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63138004"/>
+        <c:crossAx val="87359090"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63138004"/>
+        <c:axId val="87359090"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +2043,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81744148"/>
+        <c:crossAx val="46913650"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2012,7 +2091,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart223.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart376.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2262,11 +2341,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="58642499"/>
-        <c:axId val="80693599"/>
+        <c:axId val="88615671"/>
+        <c:axId val="65903291"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58642499"/>
+        <c:axId val="88615671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,12 +2373,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80693599"/>
+        <c:crossAx val="65903291"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80693599"/>
+        <c:axId val="65903291"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,7 +2415,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58642499"/>
+        <c:crossAx val="88615671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2384,7 +2463,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart224.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart377.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2634,11 +2713,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="6020620"/>
-        <c:axId val="2230439"/>
+        <c:axId val="66376868"/>
+        <c:axId val="53246317"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6020620"/>
+        <c:axId val="66376868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,12 +2745,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2230439"/>
+        <c:crossAx val="53246317"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2230439"/>
+        <c:axId val="53246317"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2787,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6020620"/>
+        <c:crossAx val="66376868"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2756,7 +2835,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart225.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart378.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3006,11 +3085,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="89874890"/>
-        <c:axId val="82119841"/>
+        <c:axId val="86078799"/>
+        <c:axId val="89768851"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89874890"/>
+        <c:axId val="86078799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,12 +3117,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82119841"/>
+        <c:crossAx val="89768851"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82119841"/>
+        <c:axId val="89768851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3159,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89874890"/>
+        <c:crossAx val="86078799"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3128,7 +3207,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart226.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart379.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3378,11 +3457,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="38413415"/>
-        <c:axId val="2091349"/>
+        <c:axId val="90953541"/>
+        <c:axId val="27319724"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38413415"/>
+        <c:axId val="90953541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3410,12 +3489,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091349"/>
+        <c:crossAx val="27319724"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2091349"/>
+        <c:axId val="27319724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3452,7 +3531,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38413415"/>
+        <c:crossAx val="90953541"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3500,7 +3579,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart227.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart380.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3750,11 +3829,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="40687152"/>
-        <c:axId val="40067001"/>
+        <c:axId val="94280634"/>
+        <c:axId val="41393767"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40687152"/>
+        <c:axId val="94280634"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3782,12 +3861,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40067001"/>
+        <c:crossAx val="41393767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="40067001"/>
+        <c:axId val="41393767"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3824,7 +3903,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40687152"/>
+        <c:crossAx val="94280634"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3872,7 +3951,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart228.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart381.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4122,11 +4201,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="16305293"/>
-        <c:axId val="96810697"/>
+        <c:axId val="35218986"/>
+        <c:axId val="38145226"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="16305293"/>
+        <c:axId val="35218986"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4154,12 +4233,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96810697"/>
+        <c:crossAx val="38145226"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96810697"/>
+        <c:axId val="38145226"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4275,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16305293"/>
+        <c:crossAx val="35218986"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4244,7 +4323,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart229.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart382.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4494,11 +4573,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79154915"/>
-        <c:axId val="8310542"/>
+        <c:axId val="57533141"/>
+        <c:axId val="67495425"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79154915"/>
+        <c:axId val="57533141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4526,12 +4605,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8310542"/>
+        <c:crossAx val="67495425"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8310542"/>
+        <c:axId val="67495425"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4568,7 +4647,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79154915"/>
+        <c:crossAx val="57533141"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4616,7 +4695,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart230.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart383.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4866,11 +4945,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="38453504"/>
-        <c:axId val="73405904"/>
+        <c:axId val="17480735"/>
+        <c:axId val="50325340"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38453504"/>
+        <c:axId val="17480735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4898,12 +4977,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73405904"/>
+        <c:crossAx val="50325340"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73405904"/>
+        <c:axId val="50325340"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4940,7 +5019,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38453504"/>
+        <c:crossAx val="17480735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4988,7 +5067,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart231.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart384.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5238,11 +5317,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="82078616"/>
-        <c:axId val="13306511"/>
+        <c:axId val="75702554"/>
+        <c:axId val="37137441"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82078616"/>
+        <c:axId val="75702554"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5270,12 +5349,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13306511"/>
+        <c:crossAx val="37137441"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13306511"/>
+        <c:axId val="37137441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5312,7 +5391,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82078616"/>
+        <c:crossAx val="75702554"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5360,7 +5439,1350 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart232.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart385.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0688480530033127"/>
+          <c:y val="0.0391710190021113"/>
+          <c:w val="0.695605975373461"/>
+          <c:h val="0.865985109456606"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>255 128 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AB$3:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>255 0 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AC$3:$AC$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AD$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>255 128 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AD$3:$AD$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>255 128 255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AE$3:$AE$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AF$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>255 0 255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AF$3:$AF$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AG$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>255 0 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AG$3:$AG$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>255 255 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AH$3:$AH$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AI$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>255 255 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AI$3:$AI$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AJ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>255 255 255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4b1f6f"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4b1f6f"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AJ$3:$AJ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AK$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 255 255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff950e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff950e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AK$3:$AK$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AL$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 255 128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c5000b"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c5000b"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AL$3:$AL$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AM$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 255 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0084d1"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AM$3:$AM$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AO$2:$AO$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 255 255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AO$3:$AO$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AP$2:$AP$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 0 255</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AP$3:$AP$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Detailed RGB light'!$AQ$2:$AQ$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0 255 0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Detailed RGB light'!$AQ$3:$AQ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="87840555"/>
+        <c:axId val="77133694"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="87840555"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77133694"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="77133694"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87840555"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart386.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5938,11 +7360,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="86989107"/>
-        <c:axId val="60327034"/>
+        <c:axId val="12389924"/>
+        <c:axId val="71674147"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86989107"/>
+        <c:axId val="12389924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5970,7 +7392,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60327034"/>
+        <c:crossAx val="71674147"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5978,7 +7400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60327034"/>
+        <c:axId val="71674147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6015,7 +7437,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86989107"/>
+        <c:crossAx val="12389924"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6063,7 +7485,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart233.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart387.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6641,11 +8063,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="84667767"/>
-        <c:axId val="50168053"/>
+        <c:axId val="7738870"/>
+        <c:axId val="64396468"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84667767"/>
+        <c:axId val="7738870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6673,7 +8095,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50168053"/>
+        <c:crossAx val="64396468"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6681,7 +8103,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50168053"/>
+        <c:axId val="64396468"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,7 +8140,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84667767"/>
+        <c:crossAx val="7738870"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6766,7 +8188,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart234.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart388.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7344,11 +8766,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="37610832"/>
-        <c:axId val="19179240"/>
+        <c:axId val="90016111"/>
+        <c:axId val="86348342"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37610832"/>
+        <c:axId val="90016111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7376,7 +8798,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19179240"/>
+        <c:crossAx val="86348342"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7384,7 +8806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19179240"/>
+        <c:axId val="86348342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7421,7 +8843,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37610832"/>
+        <c:crossAx val="90016111"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7469,7 +8891,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart235.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart389.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8047,11 +9469,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="965539"/>
-        <c:axId val="13715105"/>
+        <c:axId val="96743717"/>
+        <c:axId val="54423782"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="965539"/>
+        <c:axId val="96743717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8079,7 +9501,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13715105"/>
+        <c:crossAx val="54423782"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8087,7 +9509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="13715105"/>
+        <c:axId val="54423782"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8124,7 +9546,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="965539"/>
+        <c:crossAx val="96743717"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8172,7 +9594,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart236.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart390.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8750,11 +10172,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="74304422"/>
-        <c:axId val="27448151"/>
+        <c:axId val="78365771"/>
+        <c:axId val="12049501"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74304422"/>
+        <c:axId val="78365771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8782,7 +10204,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27448151"/>
+        <c:crossAx val="12049501"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8790,7 +10212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27448151"/>
+        <c:axId val="12049501"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8827,7 +10249,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74304422"/>
+        <c:crossAx val="78365771"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8875,7 +10297,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart237.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart391.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9248,11 +10670,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="28695622"/>
-        <c:axId val="91136424"/>
+        <c:axId val="95654448"/>
+        <c:axId val="66844536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28695622"/>
+        <c:axId val="95654448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9280,7 +10702,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91136424"/>
+        <c:crossAx val="66844536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9288,7 +10710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91136424"/>
+        <c:axId val="66844536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9325,7 +10747,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28695622"/>
+        <c:crossAx val="95654448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9373,7 +10795,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart238.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart392.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9735,11 +11157,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="75860434"/>
-        <c:axId val="74752247"/>
+        <c:axId val="10157060"/>
+        <c:axId val="72022662"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75860434"/>
+        <c:axId val="10157060"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9767,7 +11189,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74752247"/>
+        <c:crossAx val="72022662"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9775,7 +11197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74752247"/>
+        <c:axId val="72022662"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9812,7 +11234,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75860434"/>
+        <c:crossAx val="10157060"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9860,7 +11282,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart239.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart393.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10246,11 +11668,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="57947844"/>
-        <c:axId val="76837660"/>
+        <c:axId val="29247416"/>
+        <c:axId val="33432186"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="57947844"/>
+        <c:axId val="29247416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10278,7 +11700,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76837660"/>
+        <c:crossAx val="33432186"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10286,7 +11708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76837660"/>
+        <c:axId val="33432186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10323,7 +11745,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57947844"/>
+        <c:crossAx val="29247416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10371,7 +11793,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart240.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart394.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10693,11 +12115,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="85629825"/>
-        <c:axId val="54809717"/>
+        <c:axId val="36880473"/>
+        <c:axId val="56130508"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85629825"/>
+        <c:axId val="36880473"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10725,12 +12147,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54809717"/>
+        <c:crossAx val="56130508"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54809717"/>
+        <c:axId val="56130508"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10767,7 +12189,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85629825"/>
+        <c:crossAx val="36880473"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10815,7 +12237,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart241.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart395.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11137,11 +12559,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51823838"/>
-        <c:axId val="52164568"/>
+        <c:axId val="78234677"/>
+        <c:axId val="31642090"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51823838"/>
+        <c:axId val="78234677"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11169,12 +12591,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52164568"/>
+        <c:crossAx val="31642090"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52164568"/>
+        <c:axId val="31642090"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11211,7 +12633,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51823838"/>
+        <c:crossAx val="78234677"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11259,7 +12681,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart242.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart396.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11410,11 +12832,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="89448577"/>
-        <c:axId val="9465598"/>
+        <c:axId val="40343903"/>
+        <c:axId val="23807909"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89448577"/>
+        <c:axId val="40343903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11442,12 +12864,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9465598"/>
+        <c:crossAx val="23807909"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9465598"/>
+        <c:axId val="23807909"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11484,7 +12906,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89448577"/>
+        <c:crossAx val="40343903"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11532,7 +12954,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart243.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart397.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11725,11 +13147,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="81196726"/>
-        <c:axId val="83636957"/>
+        <c:axId val="70623711"/>
+        <c:axId val="55913281"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81196726"/>
+        <c:axId val="70623711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11757,12 +13179,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83636957"/>
+        <c:crossAx val="55913281"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83636957"/>
+        <c:axId val="55913281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11799,7 +13221,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81196726"/>
+        <c:crossAx val="70623711"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12244,6 +13666,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>810720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>45360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>812880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="19256040" y="1345680"/>
+        <a:ext cx="8349840" cy="4696560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12264,7 +13716,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name=""/>
+        <xdr:cNvPr id="14" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12294,7 +13746,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name=""/>
+        <xdr:cNvPr id="15" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12324,7 +13776,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name=""/>
+        <xdr:cNvPr id="16" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12354,7 +13806,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name=""/>
+        <xdr:cNvPr id="17" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12384,7 +13836,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name=""/>
+        <xdr:cNvPr id="18" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12414,7 +13866,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name=""/>
+        <xdr:cNvPr id="19" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12444,7 +13896,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvPr id="20" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12474,7 +13926,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name=""/>
+        <xdr:cNvPr id="21" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12504,7 +13956,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name=""/>
+        <xdr:cNvPr id="22" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12534,7 +13986,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name=""/>
+        <xdr:cNvPr id="23" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12569,7 +14021,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="23" name=""/>
+        <xdr:cNvPr id="24" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12604,7 +14056,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="24" name=""/>
+        <xdr:cNvPr id="25" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12629,8 +14081,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="1" sqref="AA1:AD18 J6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13582,10 +15034,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB90"/>
+  <dimension ref="A1:AQ90"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD18" activeCellId="0" sqref="AA1:AD18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AN14" activeCellId="0" sqref="AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13643,8 +15095,9 @@
       <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
+      <c r="AA1" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -13689,7 +15142,57 @@
       <c r="T2" s="0" t="n">
         <v>3.17</v>
       </c>
-      <c r="AA2" s="2"/>
+      <c r="AA2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
@@ -13722,7 +15225,57 @@
       <c r="T3" s="0" t="n">
         <v>3.17</v>
       </c>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AC3" s="11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AD3" s="11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AE3" s="11" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AK3" s="13" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AL3" s="13" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AM3" s="13" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AO3" s="0" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AP3" s="11" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AQ3" s="11" t="n">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -13755,7 +15308,57 @@
       <c r="T4" s="0" t="n">
         <v>3.16</v>
       </c>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC4" s="11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD4" s="11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE4" s="11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AK4" s="13" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AL4" s="13" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AM4" s="13" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AN4" s="14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO4" s="14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AP4" s="11" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AQ4" s="11" t="n">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -13788,7 +15391,57 @@
       <c r="T5" s="0" t="n">
         <v>3.15</v>
       </c>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AC5" s="11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD5" s="11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AE5" s="11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF5" s="0" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AG5" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AK5" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN5" s="0" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO5" s="0" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AP5" s="11" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AQ5" s="11" t="n">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -13821,7 +15474,57 @@
       <c r="T6" s="0" t="n">
         <v>3.15</v>
       </c>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB6" s="11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC6" s="11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD6" s="11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AE6" s="11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AK6" s="13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AL6" s="13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AM6" s="13" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AO6" s="0" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AP6" s="11" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AQ6" s="11" t="n">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
@@ -13839,25 +15542,93 @@
       <c r="G7" s="0" t="n">
         <v>3.27</v>
       </c>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB7" s="11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC7" s="11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD7" s="11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AE7" s="11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH7" s="12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AI7" s="12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AJ7" s="12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AK7" s="13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL7" s="13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AM7" s="13" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AO7" s="0" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AP7" s="11" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AQ7" s="11" t="n">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA8" s="2"/>
+      <c r="AN8" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA9" s="2"/>
+      <c r="AN9" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA10" s="2"/>
+      <c r="AN10" s="0" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA11" s="2"/>
+      <c r="AN11" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA12" s="2"/>
+      <c r="AN12" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA13" s="2"/>
+      <c r="AN13" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AA14" s="2"/>
@@ -14603,10 +16374,6 @@
       <c r="G58" s="0" t="n">
         <v>3.07</v>
       </c>
-      <c r="H58" s="0" t="n">
-        <f aca="false">SUM(E58:G58)</f>
-        <v>9.06</v>
-      </c>
       <c r="N58" s="2" t="n">
         <v>255</v>
       </c>
@@ -14636,7 +16403,7 @@
       <c r="D59" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="E59" s="11" t="n">
+      <c r="E59" s="14" t="n">
         <v>3.1</v>
       </c>
       <c r="F59" s="0" t="n">
@@ -14644,10 +16411,6 @@
       </c>
       <c r="G59" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <f aca="false">SUM(E59:G59)</f>
-        <v>8.73</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -14681,10 +16444,6 @@
       <c r="G60" s="0" t="n">
         <v>2.9</v>
       </c>
-      <c r="H60" s="0" t="n">
-        <f aca="false">SUM(E60:G60)</f>
-        <v>8.29</v>
-      </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -14717,10 +16476,6 @@
       <c r="G61" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="H61" s="0" t="n">
-        <f aca="false">SUM(E61:G61)</f>
-        <v>7.86</v>
-      </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -14753,10 +16508,6 @@
       <c r="G62" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="H62" s="0" t="n">
-        <f aca="false">SUM(E62:G62)</f>
-        <v>7.44</v>
-      </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -14795,6 +16546,27 @@
       <c r="G71" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="N71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
@@ -14818,9 +16590,17 @@
       <c r="G72" s="0" t="n">
         <v>2.95</v>
       </c>
-      <c r="H72" s="0" t="n">
-        <f aca="false">SUM(E72:G72)</f>
-        <v>9.49</v>
+      <c r="N72" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="O72" s="2" t="n">
+        <v>255</v>
+      </c>
+      <c r="P72" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q72" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14839,9 +16619,11 @@
       <c r="G73" s="0" t="n">
         <v>2.71</v>
       </c>
-      <c r="H73" s="0" t="n">
-        <f aca="false">SUM(E73:G73)</f>
-        <v>9.25</v>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14860,9 +16642,11 @@
       <c r="G74" s="0" t="n">
         <v>2.42</v>
       </c>
-      <c r="H74" s="0" t="n">
-        <f aca="false">SUM(E74:G74)</f>
-        <v>8.96</v>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14881,9 +16665,11 @@
       <c r="G75" s="0" t="n">
         <v>2.12</v>
       </c>
-      <c r="H75" s="0" t="n">
-        <f aca="false">SUM(E75:G75)</f>
-        <v>8.66</v>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14902,9 +16688,11 @@
       <c r="G76" s="0" t="n">
         <v>1.82</v>
       </c>
-      <c r="H76" s="0" t="n">
-        <f aca="false">SUM(E76:G76)</f>
-        <v>8.36</v>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14951,10 +16739,6 @@
       </c>
       <c r="G86" s="0" t="n">
         <v>2.86</v>
-      </c>
-      <c r="H86" s="0" t="n">
-        <f aca="false">SUM(E86:G86)</f>
-        <v>8.86</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14973,10 +16757,6 @@
       <c r="G87" s="0" t="n">
         <v>2.63</v>
       </c>
-      <c r="H87" s="0" t="n">
-        <f aca="false">SUM(E87:G87)</f>
-        <v>8.37</v>
-      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
@@ -14994,10 +16774,6 @@
       <c r="G88" s="0" t="n">
         <v>2.35</v>
       </c>
-      <c r="H88" s="0" t="n">
-        <f aca="false">SUM(E88:G88)</f>
-        <v>7.77</v>
-      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
@@ -15015,10 +16791,6 @@
       <c r="G89" s="0" t="n">
         <v>2.06</v>
       </c>
-      <c r="H89" s="0" t="n">
-        <f aca="false">SUM(E89:G89)</f>
-        <v>7.16</v>
-      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2"/>
@@ -15035,10 +16807,6 @@
       </c>
       <c r="G90" s="0" t="n">
         <v>1.77</v>
-      </c>
-      <c r="H90" s="0" t="n">
-        <f aca="false">SUM(E90:G90)</f>
-        <v>6.54</v>
       </c>
     </row>
   </sheetData>
@@ -15060,8 +16828,8 @@
   </sheetPr>
   <dimension ref="A1:X133"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D116" activeCellId="1" sqref="AA1:AD18 D116"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D116" activeCellId="0" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15072,30 +16840,30 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12"/>
+      <c r="A1" s="15"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="T1" s="2" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -15103,12 +16871,12 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -15123,7 +16891,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>21</v>
@@ -15138,7 +16906,7 @@
         <v>23</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>21</v>
@@ -15154,8 +16922,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>60</v>
+      <c r="A3" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="n">
         <f aca="false">B131</f>
@@ -15217,8 +16985,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14" t="n">
+      <c r="A4" s="15"/>
+      <c r="B4" s="17" t="n">
         <f aca="false">(B3-$B$132)/($B$131-$B$132)</f>
         <v>1</v>
       </c>
@@ -15278,7 +17046,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="2" t="n">
         <v>20</v>
       </c>
@@ -15335,7 +17103,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="2" t="n">
         <v>30</v>
       </c>
@@ -15391,7 +17159,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="C7" s="2" t="n">
         <v>40</v>
       </c>
@@ -15409,7 +17177,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="C8" s="2" t="n">
         <v>50</v>
       </c>
@@ -15427,7 +17195,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="C9" s="2" t="n">
         <v>60</v>
       </c>
@@ -15445,7 +17213,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="C10" s="2" t="n">
         <v>70</v>
       </c>
@@ -15463,7 +17231,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="C11" s="2" t="n">
         <v>80</v>
       </c>
@@ -15481,7 +17249,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
+      <c r="A12" s="15"/>
       <c r="C12" s="2" t="n">
         <v>90</v>
       </c>
@@ -15499,7 +17267,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
+      <c r="A13" s="15"/>
       <c r="C13" s="2" t="n">
         <v>100</v>
       </c>
@@ -15517,28 +17285,28 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>21</v>
@@ -15554,8 +17322,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>61</v>
+      <c r="A16" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B16" s="2" t="n">
         <f aca="false">ROUND($B131-$B133,0)</f>
@@ -15578,8 +17346,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14" t="n">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17" t="n">
         <f aca="false">(B16-$B$132)/($B$131-$B$132)</f>
         <v>0.749425287356322</v>
       </c>
@@ -15600,7 +17368,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
+      <c r="A18" s="15"/>
       <c r="C18" s="2" t="n">
         <v>20</v>
       </c>
@@ -15618,7 +17386,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="C19" s="2" t="n">
         <v>30</v>
       </c>
@@ -15636,7 +17404,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
+      <c r="A20" s="15"/>
       <c r="C20" s="2" t="n">
         <v>40</v>
       </c>
@@ -15654,7 +17422,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
+      <c r="A21" s="15"/>
       <c r="C21" s="2" t="n">
         <v>50</v>
       </c>
@@ -15672,7 +17440,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
+      <c r="A22" s="15"/>
       <c r="C22" s="2" t="n">
         <v>60</v>
       </c>
@@ -15690,7 +17458,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
+      <c r="A23" s="15"/>
       <c r="C23" s="2" t="n">
         <v>70</v>
       </c>
@@ -15708,7 +17476,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
+      <c r="A24" s="15"/>
       <c r="C24" s="2" t="n">
         <v>80</v>
       </c>
@@ -15726,7 +17494,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
+      <c r="A25" s="15"/>
       <c r="C25" s="2" t="n">
         <v>90</v>
       </c>
@@ -15744,7 +17512,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
+      <c r="A26" s="15"/>
       <c r="C26" s="2" t="n">
         <v>100</v>
       </c>
@@ -15762,28 +17530,28 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
+      <c r="A27" s="15"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>21</v>
@@ -15799,7 +17567,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="2" t="n">
         <v>420</v>
       </c>
@@ -15820,10 +17588,10 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="14" t="n">
+      <c r="A30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="17" t="n">
         <f aca="false">(B29-$B$132)/($B$131-$B$132)</f>
         <v>0.613793103448276</v>
       </c>
@@ -15844,28 +17612,28 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
+      <c r="A31" s="15"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>21</v>
@@ -15881,8 +17649,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>63</v>
+      <c r="A33" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="n">
         <f aca="false">ROUND($B131-2*$B133,0)</f>
@@ -15905,8 +17673,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="B34" s="14" t="n">
+      <c r="A34" s="15"/>
+      <c r="B34" s="17" t="n">
         <f aca="false">(B33-$B$132)/($B$131-$B$132)</f>
         <v>0.501149425287356</v>
       </c>
@@ -15927,7 +17695,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
+      <c r="A35" s="15"/>
       <c r="C35" s="2" t="n">
         <v>20</v>
       </c>
@@ -15945,7 +17713,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
+      <c r="A36" s="15"/>
       <c r="C36" s="2" t="n">
         <v>30</v>
       </c>
@@ -15963,7 +17731,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
+      <c r="A37" s="15"/>
       <c r="C37" s="2" t="n">
         <v>40</v>
       </c>
@@ -15981,7 +17749,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
+      <c r="A38" s="15"/>
       <c r="C38" s="2" t="n">
         <v>50</v>
       </c>
@@ -15999,7 +17767,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
+      <c r="A39" s="15"/>
       <c r="C39" s="2" t="n">
         <v>60</v>
       </c>
@@ -16017,7 +17785,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
+      <c r="A40" s="15"/>
       <c r="C40" s="2" t="n">
         <v>70</v>
       </c>
@@ -16035,7 +17803,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
+      <c r="A41" s="15"/>
       <c r="C41" s="2" t="n">
         <v>80</v>
       </c>
@@ -16053,7 +17821,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
+      <c r="A42" s="15"/>
       <c r="C42" s="2" t="n">
         <v>90</v>
       </c>
@@ -16071,7 +17839,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
+      <c r="A43" s="15"/>
       <c r="C43" s="2" t="n">
         <v>100</v>
       </c>
@@ -16091,25 +17859,25 @@
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>21</v>
@@ -16125,7 +17893,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="15"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="2" t="n">
         <v>370</v>
       </c>
@@ -16146,10 +17914,10 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="14" t="n">
+      <c r="A47" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="17" t="n">
         <f aca="false">(B46-$B$132)/($B$131-$B$132)</f>
         <v>0.498850574712644</v>
       </c>
@@ -16170,28 +17938,28 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="15"/>
+      <c r="A48" s="18"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="15"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>21</v>
@@ -16207,7 +17975,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="15"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="2" t="n">
         <v>334</v>
       </c>
@@ -16228,10 +17996,10 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="14" t="n">
+      <c r="A51" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="17" t="n">
         <f aca="false">(B50-$B$132)/($B$131-$B$132)</f>
         <v>0.416091954022988</v>
       </c>
@@ -16253,25 +18021,25 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>21</v>
@@ -16287,7 +18055,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="16"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="2" t="n">
         <v>333</v>
       </c>
@@ -16308,10 +18076,10 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="14" t="n">
+      <c r="A55" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="17" t="n">
         <f aca="false">(B54-$B$132)/($B$131-$B$132)</f>
         <v>0.413793103448276</v>
       </c>
@@ -16332,28 +18100,28 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="16"/>
+      <c r="A56" s="11"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>21</v>
@@ -16369,7 +18137,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="16"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="2" t="n">
         <v>313</v>
       </c>
@@ -16390,10 +18158,10 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="14" t="n">
+      <c r="A59" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="17" t="n">
         <f aca="false">(B58-$B$132)/($B$131-$B$132)</f>
         <v>0.367816091954023</v>
       </c>
@@ -16416,25 +18184,25 @@
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>21</v>
@@ -16450,7 +18218,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="2" t="n">
         <v>312</v>
       </c>
@@ -16471,10 +18239,10 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="14" t="n">
+      <c r="A63" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="17" t="n">
         <f aca="false">(B62-$B$132)/($B$131-$B$132)</f>
         <v>0.36551724137931</v>
       </c>
@@ -16495,28 +18263,28 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17"/>
+      <c r="A64" s="19"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>21</v>
@@ -16532,8 +18300,8 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18" t="s">
-        <v>64</v>
+      <c r="A66" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>284</v>
@@ -16555,8 +18323,8 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17"/>
-      <c r="B67" s="14" t="n">
+      <c r="A67" s="19"/>
+      <c r="B67" s="17" t="n">
         <f aca="false">(B66-$B$132)/($B$131-$B$132)</f>
         <v>0.301149425287356</v>
       </c>
@@ -16577,7 +18345,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="17"/>
+      <c r="A68" s="19"/>
       <c r="C68" s="2" t="n">
         <v>20</v>
       </c>
@@ -16595,7 +18363,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="17"/>
+      <c r="A69" s="19"/>
       <c r="C69" s="2" t="n">
         <v>30</v>
       </c>
@@ -16613,7 +18381,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17"/>
+      <c r="A70" s="19"/>
       <c r="C70" s="2" t="n">
         <v>40</v>
       </c>
@@ -16631,7 +18399,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17"/>
+      <c r="A71" s="19"/>
       <c r="C71" s="2" t="n">
         <v>50</v>
       </c>
@@ -16649,7 +18417,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17"/>
+      <c r="A72" s="19"/>
       <c r="C72" s="2" t="n">
         <v>60</v>
       </c>
@@ -16667,7 +18435,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="17"/>
+      <c r="A73" s="19"/>
       <c r="C73" s="2" t="n">
         <v>70</v>
       </c>
@@ -16685,7 +18453,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="17"/>
+      <c r="A74" s="19"/>
       <c r="C74" s="2" t="n">
         <v>80</v>
       </c>
@@ -16703,7 +18471,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="17"/>
+      <c r="A75" s="19"/>
       <c r="C75" s="2" t="n">
         <v>90</v>
       </c>
@@ -16721,7 +18489,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17"/>
+      <c r="A76" s="19"/>
       <c r="C76" s="2" t="n">
         <v>100</v>
       </c>
@@ -16739,28 +18507,28 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="17"/>
+      <c r="A77" s="19"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="17"/>
+      <c r="A78" s="19"/>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>21</v>
@@ -16776,8 +18544,8 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="18" t="s">
-        <v>65</v>
+      <c r="A79" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="B79" s="2" t="n">
         <f aca="false">ROUND($B131-3*$B133,0)</f>
@@ -16800,8 +18568,8 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="17"/>
-      <c r="B80" s="14" t="n">
+      <c r="A80" s="19"/>
+      <c r="B80" s="17" t="n">
         <f aca="false">(B79-$B$132)/($B$131-$B$132)</f>
         <v>0.250574712643678</v>
       </c>
@@ -16822,7 +18590,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="17"/>
+      <c r="A81" s="19"/>
       <c r="C81" s="2" t="n">
         <v>20</v>
       </c>
@@ -16840,7 +18608,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="17"/>
+      <c r="A82" s="19"/>
       <c r="C82" s="2" t="n">
         <v>30</v>
       </c>
@@ -16858,7 +18626,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="17"/>
+      <c r="A83" s="19"/>
       <c r="C83" s="2" t="n">
         <v>40</v>
       </c>
@@ -16876,7 +18644,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="17"/>
+      <c r="A84" s="19"/>
       <c r="C84" s="2" t="n">
         <v>50</v>
       </c>
@@ -16894,7 +18662,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="17"/>
+      <c r="A85" s="19"/>
       <c r="C85" s="2" t="n">
         <v>60</v>
       </c>
@@ -16912,7 +18680,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="17"/>
+      <c r="A86" s="19"/>
       <c r="C86" s="2" t="n">
         <v>70</v>
       </c>
@@ -16930,7 +18698,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="17"/>
+      <c r="A87" s="19"/>
       <c r="C87" s="2" t="n">
         <v>80</v>
       </c>
@@ -16948,7 +18716,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="17"/>
+      <c r="A88" s="19"/>
       <c r="C88" s="2" t="n">
         <v>90</v>
       </c>
@@ -16966,7 +18734,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="17"/>
+      <c r="A89" s="19"/>
       <c r="C89" s="2" t="n">
         <v>100</v>
       </c>
@@ -16984,28 +18752,28 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="17"/>
+      <c r="A90" s="19"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="17"/>
+      <c r="A91" s="19"/>
       <c r="B91" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>21</v>
@@ -17021,7 +18789,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="17"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="2" t="n">
         <v>251</v>
       </c>
@@ -17042,10 +18810,10 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="14" t="n">
+      <c r="A93" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="17" t="n">
         <f aca="false">(B92-$B$132)/($B$131-$B$132)</f>
         <v>0.225287356321839</v>
       </c>
@@ -17071,25 +18839,25 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="19"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>21</v>
@@ -17105,7 +18873,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="19"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="2" t="n">
         <v>250</v>
       </c>
@@ -17126,10 +18894,10 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B98" s="14" t="n">
+      <c r="A98" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="17" t="n">
         <f aca="false">(B97-$B$132)/($B$131-$B$132)</f>
         <v>0.222988505747126</v>
       </c>
@@ -17150,28 +18918,28 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="19"/>
+      <c r="A99" s="12"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="19"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>21</v>
@@ -17187,7 +18955,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="20"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="2" t="n">
         <f aca="false">ROUND(4.36 * 20 +B118,0)</f>
         <v>240</v>
@@ -17209,8 +18977,8 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="19"/>
-      <c r="B102" s="14" t="n">
+      <c r="A102" s="12"/>
+      <c r="B102" s="17" t="n">
         <f aca="false">(B101-$B$132)/($B$131-$B$132)</f>
         <v>0.2</v>
       </c>
@@ -17231,8 +18999,8 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="19" t="s">
-        <v>62</v>
+      <c r="A103" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>100</v>
@@ -17251,28 +19019,28 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="19"/>
+      <c r="A104" s="12"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="19"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>21</v>
@@ -17288,7 +19056,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="19"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="2" t="n">
         <v>223</v>
       </c>
@@ -17309,10 +19077,10 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" s="14" t="n">
+      <c r="A107" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B107" s="17" t="n">
         <f aca="false">(B106-$B$132)/($B$131-$B$132)</f>
         <v>0.160919540229885</v>
       </c>
@@ -17335,25 +19103,25 @@
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C108" s="2"/>
       <c r="D108" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="21"/>
+      <c r="A109" s="22"/>
       <c r="B109" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>21</v>
@@ -17369,7 +19137,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="21"/>
+      <c r="A110" s="22"/>
       <c r="B110" s="2" t="n">
         <v>222</v>
       </c>
@@ -17390,10 +19158,10 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B111" s="14" t="n">
+      <c r="A111" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B111" s="17" t="n">
         <f aca="false">(B110-$B$132)/($B$131-$B$132)</f>
         <v>0.158620689655172</v>
       </c>
@@ -17414,28 +19182,28 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="21"/>
+      <c r="A112" s="22"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="21"/>
+      <c r="A113" s="22"/>
       <c r="B113" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>21</v>
@@ -17451,7 +19219,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="21"/>
+      <c r="A114" s="22"/>
       <c r="B114" s="2" t="n">
         <v>187</v>
       </c>
@@ -17472,10 +19240,10 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B115" s="14" t="n">
+      <c r="A115" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="17" t="n">
         <f aca="false">(B114-$B$132)/($B$131-$B$132)</f>
         <v>0.0781609195402299</v>
       </c>
@@ -17496,28 +19264,28 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="21"/>
+      <c r="A116" s="22"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="21"/>
+      <c r="A117" s="22"/>
       <c r="B117" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>21</v>
@@ -17533,8 +19301,8 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="22" t="s">
-        <v>66</v>
+      <c r="A118" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="B118" s="2" t="n">
         <f aca="false">B132</f>
@@ -17557,8 +19325,8 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="21"/>
-      <c r="B119" s="14" t="n">
+      <c r="A119" s="22"/>
+      <c r="B119" s="17" t="n">
         <f aca="false">(B118-$B$132)/($B$131-$B$132)</f>
         <v>0</v>
       </c>
@@ -17579,7 +19347,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="21"/>
+      <c r="A120" s="22"/>
       <c r="C120" s="2" t="n">
         <v>20</v>
       </c>
@@ -17597,7 +19365,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="21"/>
+      <c r="A121" s="22"/>
       <c r="C121" s="2" t="n">
         <v>30</v>
       </c>
@@ -17615,7 +19383,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="21"/>
+      <c r="A122" s="22"/>
       <c r="C122" s="2" t="n">
         <v>40</v>
       </c>
@@ -17633,7 +19401,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="21"/>
+      <c r="A123" s="22"/>
       <c r="C123" s="2" t="n">
         <v>50</v>
       </c>
@@ -17651,7 +19419,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="21"/>
+      <c r="A124" s="22"/>
       <c r="C124" s="2" t="n">
         <v>60</v>
       </c>
@@ -17669,7 +19437,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="21"/>
+      <c r="A125" s="22"/>
       <c r="C125" s="2" t="n">
         <v>70</v>
       </c>
@@ -17687,7 +19455,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="21"/>
+      <c r="A126" s="22"/>
       <c r="C126" s="2" t="n">
         <v>80</v>
       </c>
@@ -17705,7 +19473,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="21"/>
+      <c r="A127" s="22"/>
       <c r="C127" s="2" t="n">
         <v>90</v>
       </c>
@@ -17723,7 +19491,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="21"/>
+      <c r="A128" s="22"/>
       <c r="C128" s="2" t="n">
         <v>100</v>
       </c>
@@ -17742,12 +19510,12 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>588</v>
@@ -17755,7 +19523,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>153</v>
@@ -17763,7 +19531,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B133" s="0" t="n">
         <f aca="false">(B131-B132)/4</f>
@@ -17789,8 +19557,8 @@
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="AA1:AD18 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17801,7 +19569,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17813,23 +19581,23 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="24" t="n">
         <v>0.011765</v>
       </c>
-      <c r="C4" s="23" t="n">
+      <c r="C4" s="24" t="n">
         <v>4E-006</v>
       </c>
     </row>
@@ -17837,10 +19605,10 @@
       <c r="A5" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="24" t="n">
         <v>0.188235</v>
       </c>
-      <c r="C5" s="23" t="n">
+      <c r="C5" s="24" t="n">
         <v>0.009315</v>
       </c>
     </row>
@@ -17851,21 +19619,21 @@
       <c r="B6" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="24" t="n">
         <v>0.011038</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="24" t="n">
         <v>0.298039</v>
       </c>
-      <c r="C7" s="23" t="n">
+      <c r="C7" s="24" t="n">
         <v>0.033726</v>
       </c>
     </row>
@@ -17876,7 +19644,7 @@
       <c r="B8" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="C8" s="23" t="n">
+      <c r="C8" s="24" t="n">
         <v>0.076872</v>
       </c>
     </row>
@@ -17884,10 +19652,10 @@
       <c r="A9" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="24" t="n">
         <v>0.501961</v>
       </c>
-      <c r="C9" s="23" t="n">
+      <c r="C9" s="24" t="n">
         <v>0.14517</v>
       </c>
     </row>
@@ -17898,7 +19666,7 @@
       <c r="B10" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="C10" s="24" t="n">
         <v>0.239234</v>
       </c>
     </row>
@@ -17906,10 +19674,10 @@
       <c r="A11" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="B11" s="23" t="n">
+      <c r="B11" s="24" t="n">
         <v>0.698039</v>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="24" t="n">
         <v>0.36548</v>
       </c>
     </row>
@@ -17920,7 +19688,7 @@
       <c r="B12" s="0" t="n">
         <v>0.8</v>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="24" t="n">
         <v>0.535367</v>
       </c>
     </row>
@@ -17928,10 +19696,10 @@
       <c r="A13" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="B13" s="23" t="n">
+      <c r="B13" s="24" t="n">
         <v>0.901961</v>
       </c>
-      <c r="C13" s="23" t="n">
+      <c r="C13" s="24" t="n">
         <v>0.749075</v>
       </c>
     </row>
@@ -17948,17 +19716,17 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -17980,15 +19748,15 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="AA1:AD18 B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -17998,10 +19766,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
